--- a/Swanson-BrainMaps/3rd-edition/Swanson-v3_CCS.xlsx
+++ b/Swanson-BrainMaps/3rd-edition/Swanson-v3_CCS.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="29">
   <si>
     <t>abbreviation</t>
   </si>
@@ -456,7 +456,7 @@
   <dimension ref="A1:E1159"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -509,8 +509,8 @@
       <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="D3">
-        <v>1</v>
+      <c r="D3" t="s">
+        <v>13</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>20</v>
